--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D8DA00-380F-904E-A788-0F35E65860B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852802EC-42E6-054F-B84B-AF3A2FA427E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C1A2DC58-5B84-954D-9D5B-7D6A1033AA2B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>Specimen Collection Method</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>INACTIVE_F</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -549,15 +552,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7908785-0D25-3B46-9147-92CAF1BA0E7A}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="R1" t="s">
         <v>54</v>
       </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -719,7 +725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -772,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -825,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -878,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -931,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852802EC-42E6-054F-B84B-AF3A2FA427E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139AB8-6AFC-7F40-9C86-DB75A178ED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C1A2DC58-5B84-954D-9D5B-7D6A1033AA2B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="57">
   <si>
     <t>Specimen Collection Method</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -552,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7908785-0D25-3B46-9147-92CAF1BA0E7A}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="T3" sqref="T3:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="S1" t="s">
         <v>55</v>
       </c>
+      <c r="T1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -671,8 +677,11 @@
       <c r="Q2" t="s">
         <v>12</v>
       </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -724,8 +733,11 @@
       <c r="Q3" t="s">
         <v>12</v>
       </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -777,8 +789,11 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -830,8 +845,11 @@
       <c r="Q5" t="s">
         <v>12</v>
       </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -883,8 +901,11 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -936,8 +957,11 @@
       <c r="Q7" t="s">
         <v>12</v>
       </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -987,6 +1011,9 @@
         <v>12</v>
       </c>
       <c r="Q8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139AB8-6AFC-7F40-9C86-DB75A178ED28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968FFFF3-9D4B-0448-AC8B-DD7B6251A7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C1A2DC58-5B84-954D-9D5B-7D6A1033AA2B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>Specimen Collection Method</t>
   </si>
@@ -198,12 +198,6 @@
   </si>
   <si>
     <t>INACTIVE_F</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -555,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7908785-0D25-3B46-9147-92CAF1BA0E7A}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -618,14 +612,8 @@
       <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s">
-        <v>56</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -677,11 +665,8 @@
       <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="T2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -733,11 +718,8 @@
       <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -789,11 +771,8 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -845,11 +824,8 @@
       <c r="Q5" t="s">
         <v>12</v>
       </c>
-      <c r="T5" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -901,11 +877,8 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="T6" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -957,11 +930,8 @@
       <c r="Q7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1011,9 +981,6 @@
         <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" t="s">
         <v>12</v>
       </c>
     </row>
